--- a/biology/Botanique/Thladiantha/Thladiantha.xlsx
+++ b/biology/Botanique/Thladiantha/Thladiantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thladiantha est un genre de plantes à fleurs de la famille des Cucurbitaceae.
 Ce genre comprend 23 espèces de plantes herbacées originaires de l'est et du sud de l'Asie : Bhoutan, Chine, Inde, Indonésie Corée, Laos, Myanmar, Népal, Thaïlande, Vietnam. Certaines espèces sont naturalisées au Japon.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 août 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 août 2013) :
 Thladiantha capitata
 Thladiantha cinerascens
 Thladiantha cordifolia
@@ -538,9 +552,9 @@
 Thladiantha sessilifolia
 Thladiantha setispina
 Thladiantha villosula
-Selon ITIS      (27 août 2013)[2] :
+Selon ITIS      (27 août 2013) :
 Thladiantha dubia Bunge
-Selon NCBI  (27 août 2013)[3] :
+Selon NCBI  (27 août 2013) :
 Thladiantha capitata
 Thladiantha cordifolia
 Thladiantha davidii
@@ -557,7 +571,7 @@
 Thladiantha oliveri
 Thladiantha pustulata
 Thladiantha villosula
-Selon Tropicos                                           (27 août 2013)[4] :
+Selon Tropicos                                           (27 août 2013) :
 Thladiantha africana C. Jeffrey
 Thladiantha borneensis Merr.
 Thladiantha brachycephala C.Y. Wu
